--- a/Triangel/tester.xlsx
+++ b/Triangel/tester.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
   <si>
     <t>Blackbox testning</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Lågttal</t>
   </si>
   <si>
-    <t>Whitebox testning</t>
-  </si>
-  <si>
     <t>Triangeln är liksidig</t>
   </si>
   <si>
@@ -195,7 +192,34 @@
     <t>456, 2, 456</t>
   </si>
   <si>
-    <t>Programmet verkar inte ta double värden utan avrundar dessa</t>
+    <t xml:space="preserve">Programmet verkar inte ta double värden utan avrundar dessa nedåt, tyder på att det är int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svårt att göra tester på detta då int utanför spannet bör bli negativa värden  </t>
+  </si>
+  <si>
+    <t>1 1 1,9</t>
+  </si>
+  <si>
+    <t>Testar avrunding bör bli liksidig om programmet tar ints</t>
+  </si>
+  <si>
+    <t>Förväntat utfall, dock felaktigt</t>
+  </si>
+  <si>
+    <t>Int Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max int +1 </t>
+  </si>
+  <si>
+    <t>Max int + 1000</t>
+  </si>
+  <si>
+    <t>2147483648, 2147483648, 2147485000</t>
+  </si>
+  <si>
+    <t>Fail, antar jag, likbent eventuellt</t>
   </si>
 </sst>
 </file>
@@ -557,18 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I42"/>
+  <dimension ref="A4:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -601,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
@@ -618,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1">
@@ -644,16 +668,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1">
@@ -670,16 +694,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
@@ -696,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1">
@@ -722,19 +746,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1">
@@ -751,16 +775,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
@@ -777,16 +801,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1">
@@ -800,19 +824,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -831,16 +855,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1">
@@ -857,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1">
@@ -880,16 +904,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1">
@@ -906,16 +930,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1">
@@ -932,16 +956,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1">
@@ -958,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1">
@@ -984,16 +1008,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1">
@@ -1004,25 +1028,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1044,16 +1068,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1">
@@ -1070,16 +1094,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1">
@@ -1096,16 +1120,16 @@
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1">
@@ -1122,16 +1146,16 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1">
@@ -1148,16 +1172,16 @@
         <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1">
@@ -1174,16 +1198,16 @@
         <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1">
@@ -1200,16 +1224,16 @@
         <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1">
@@ -1226,16 +1250,16 @@
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1">
@@ -1252,35 +1276,89 @@
         <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1">
+      <c r="A36" s="2">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>32</v>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1">
+      <c r="A37" s="1">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
